--- a/dss/PyomoSolver/dss/PyomoSolver/solution.xlsx
+++ b/dss/PyomoSolver/dss/PyomoSolver/solution.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="soln" sheetId="1" r:id="rId1"/>
+    <sheet name="investmentsoln" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>price</t>
   </si>
@@ -29,6 +30,9 @@
   </si>
   <si>
     <t>material_id</t>
+  </si>
+  <si>
+    <t>agent_id</t>
   </si>
 </sst>
 </file>
@@ -386,7 +390,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +415,10 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1">
         <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -423,28 +427,82 @@
         <v>-77</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-77</v>
+        <v>-48.8035</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-48.8905</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>